--- a/data/model_a_results.xlsx
+++ b/data/model_a_results.xlsx
@@ -478,17 +478,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>patients with NAFLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>effects of moderate alcohol consumption</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -511,19 +511,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Does not address NAFLD, intervention, comparison, outcomes, or study design.</t>
+          <t>does not compare NAFLD patients with a control group</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>children with liver disease</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>correlation with colorectal cancer and liver diseases</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Does not focus on NAFLD or specified interventions and comparisons.</t>
+          <t>focuses on liver disease in children, not specifically NAFLD</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -591,19 +591,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Does not address NAFLD, intervention, comparison, outcomes, or study design.</t>
+          <t>does not mention NAFLD or any relevant outcomes</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>patients with NAFLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -618,12 +618,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>extrahepatic malignancies</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>narrative review</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -631,14 +631,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Does not address NAFLD, intervention, comparison, outcomes, or study design.</t>
+          <t>is a review, not a cohort study, and lacks comparison data</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>comparison of TOR and TAM in breast cancer</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>incidence of ovarian cysts and fatty liver</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>prospective randomized clinical study</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -671,24 +671,24 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Focuses on breast cancer, not NAFLD as population.</t>
+          <t>does not mention NAFLD or any relevant outcomes</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>patients with liver diseases including NAFLD</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>management of liver diseases in pregnancy</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>adverse maternal and fetal outcomes</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -711,19 +711,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>While mentioning NAFLD, it does not provide a direct comparison or specific outcomes related to extra-hepatic cancers.</t>
+          <t>does not mention NAFLD or any relevant outcomes</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>patients with NAFLD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -733,32 +733,32 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>general population</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>risk of colorectal polyps</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>meta-analysis of observational studies</t>
         </is>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Does not address NAFLD, intervention, comparison, outcomes, or study design.</t>
+          <t>matches all PICOS criteria with relevant outcomes and comparisons</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>scutellarin effects</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -791,14 +791,14 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Does not address NAFLD, intervention, comparison, outcomes, or study design.</t>
+          <t>does not mention NAFLD or relevant outcomes</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -838,32 +838,32 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>patients with NAFLD</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>effects of moderate alcohol consumption on NAFLD</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -871,24 +871,24 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>does not provide a comparison or outcome related to extra-hepatic cancers</t>
+          <t>Not processed - Empty abstract</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>children with liver disease</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>curcumin applications for health promotion</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -911,14 +911,14 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>focuses on liver disease in children, not NAFLD or extra-hepatic cancers</t>
+          <t>does not address NAFLD or related outcomes</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>effects of intestinal fungi on health</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>correlation with various diseases including NAFLD</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -951,19 +951,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>does not mention NAFLD or extra-hepatic cancers</t>
+          <t>does not focus on NAFLD management or cancer outcomes</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>patients with NAFLD</t>
+          <t>patients with LMNA variants</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -973,17 +973,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>extrahepatic malignancies</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>risk of extrahepatic complications including cancers</t>
+          <t>various clinical manifestations</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>narrative review</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -991,14 +991,14 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>does not provide specific data from a cohort study</t>
+          <t>does not involve NAFLD or cancer outcomes</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>influence of sex and gender on health</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1031,24 +1031,24 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>does not mention NAFLD or extra-hepatic cancers</t>
+          <t>does not address NAFLD or related outcomes</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>premenopausal breast cancer patients</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>comparison of TOR and TAM treatments</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1058,12 +1058,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>incidence of fatty liver and other side effects</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>prospective randomized clinical study</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1071,54 +1071,54 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>does not mention NAFLD or extra-hepatic cancers</t>
+          <t>focuses on breast cancer, not NAFLD management or cancer incidence</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>patients with NAFLD</t>
+          <t>pregnant women with liver diseases</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>management of liver diseases</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>general population</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>risk of colorectal polyps</t>
+          <t>adverse maternal and fetal outcomes</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>meta-analysis of observational studies</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>matches all PICOS criteria with relevant outcomes</t>
+          <t>discusses liver diseases in pregnancy, not specifically NAFLD or cancer outcomes</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>scutellarin effects</t>
+          <t>overview of F. prausnitzii features</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1138,12 +1138,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>correlation with intestinal disorders</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>review of literature</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1151,39 +1151,39 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>does not mention NAFLD or extra-hepatic cancers</t>
+          <t>does not address NAFLD or related outcomes</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>not applicable</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>not applicable</t>
+          <t>targeting senescent cells for CKD</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>not applicable</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>not applicable</t>
+          <t>role of cellular senescence in kidney fibrosis</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>not applicable</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1191,14 +1191,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Not processed - Empty abstract</t>
+          <t>focuses on CKD, not NAFLD or cancer incidence</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
